--- a/excel/STBConfig.xlsx
+++ b/excel/STBConfig.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="77">
   <si>
     <t>id</t>
   </si>
@@ -391,6 +391,156 @@
   </si>
   <si>
     <t>common/items/钻石龙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买图标</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>puricon</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>gui/shop/texture/10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>级金币龙</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gui/shop/texture/矿石初级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gui/shop/texture/矿石中级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gui/shop/texture/矿石高级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预制体</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>perfab</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>prefabs/STB_Super_Level1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prefabs/STB_Super_Level2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prefabs/STB_Super_Level3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prefabs/STB_Gem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prefabs/STB_Diamond</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prefabs/STB_Gold_Level10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prefabs/STB_Gold_Level1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prefabs/STB_Gold_Level3</t>
+  </si>
+  <si>
+    <t>prefabs/STB_Gold_Level4</t>
+  </si>
+  <si>
+    <t>prefabs/STB_Gold_Level5</t>
+  </si>
+  <si>
+    <t>prefabs/STB_Gold_Level6</t>
+  </si>
+  <si>
+    <t>prefabs/STB_Gold_Level7</t>
+  </si>
+  <si>
+    <t>prefabs/STB_Gold_Level8</t>
+  </si>
+  <si>
+    <t>prefabs/STB_Gold_Level9</t>
+  </si>
+  <si>
+    <t>prefabs/STB_Gold_Level2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地图</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>map</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动画</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>animation</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>client</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>idle_lv2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>idle_lv3</t>
+  </si>
+  <si>
+    <t>idle_lv4</t>
+  </si>
+  <si>
+    <t>idle_lv5</t>
+  </si>
+  <si>
+    <t>idle_lv6</t>
+  </si>
+  <si>
+    <t>idle_lv7</t>
+  </si>
+  <si>
+    <t>idle_lv8</t>
+  </si>
+  <si>
+    <t>idle_lv9</t>
+  </si>
+  <si>
+    <t>idle_lv1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -489,7 +639,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -499,6 +649,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -778,21 +931,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="1" width="24.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="31.109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="47.5546875" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="1"/>
+    <col min="2" max="2" width="21" style="1" customWidth="1"/>
+    <col min="3" max="3" width="30.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="30.5546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="28.21875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="24.21875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="41.5546875" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.6">
+    <row r="1" spans="1:7" ht="15.6">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
@@ -802,8 +959,20 @@
       <c r="C1" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="15.6">
+      <c r="D1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15.6">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -813,8 +982,20 @@
       <c r="C2" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="15.6">
+      <c r="D2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.6">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -824,8 +1005,20 @@
       <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="16.2">
+      <c r="D3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="16.2">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
@@ -835,8 +1028,20 @@
       <c r="C4" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="16.2">
+      <c r="D4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="16.2">
       <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
@@ -846,8 +1051,20 @@
       <c r="C5" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="14.4" customHeight="1">
+      <c r="D5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="14.4" customHeight="1">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -857,8 +1074,17 @@
       <c r="C6" s="4" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="E6" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1">
         <v>2</v>
       </c>
@@ -868,8 +1094,17 @@
       <c r="C7" s="4" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="E7" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1">
         <v>3</v>
       </c>
@@ -879,8 +1114,17 @@
       <c r="C8" s="4" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="E8" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1">
         <v>4</v>
       </c>
@@ -890,8 +1134,17 @@
       <c r="C9" s="4" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="E9" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1">
         <v>5</v>
       </c>
@@ -901,8 +1154,17 @@
       <c r="C10" s="4" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
+      <c r="E10" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1">
         <v>6</v>
       </c>
@@ -912,8 +1174,17 @@
       <c r="C11" s="4" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="E11" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1">
         <v>7</v>
       </c>
@@ -923,8 +1194,17 @@
       <c r="C12" s="4" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
+      <c r="E12" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1">
         <v>8</v>
       </c>
@@ -934,8 +1214,17 @@
       <c r="C13" s="4" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="14" spans="1:3">
+      <c r="E13" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1">
         <v>9</v>
       </c>
@@ -945,8 +1234,17 @@
       <c r="C14" s="4" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="15" spans="1:3">
+      <c r="E14" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1">
         <v>10</v>
       </c>
@@ -956,8 +1254,17 @@
       <c r="C15" s="4" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="16" spans="1:3">
+      <c r="D15" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F15" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1">
         <v>11</v>
       </c>
@@ -967,8 +1274,14 @@
       <c r="C16" s="4" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="E16" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F16" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1">
         <v>12</v>
       </c>
@@ -978,8 +1291,17 @@
       <c r="C17" s="4" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="D17" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F17" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1">
         <v>13</v>
       </c>
@@ -989,8 +1311,17 @@
       <c r="C18" s="4" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="D18" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F18" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1">
         <v>14</v>
       </c>
@@ -1000,8 +1331,17 @@
       <c r="C19" s="4" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F19" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1">
         <v>15</v>
       </c>
@@ -1010,6 +1350,12 @@
       </c>
       <c r="C20" s="4" t="s">
         <v>38</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F20" s="1">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/excel/STBConfig.xlsx
+++ b/excel/STBConfig.xlsx
@@ -114,286 +114,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>common/items/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>级金币龙</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>common/items/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>级金币龙</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>common/items/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>级金币龙</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>common/items/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>级金币龙</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>common/items/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>级金币龙</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>common/items/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>6</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>级金币龙</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>common/items/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>7</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>级金币龙</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>common/items/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>8</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>级金币龙</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>common/items/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>9级金币龙</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>common/items/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>10</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>级金币龙</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>common/items/宝石龙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>common/items/矿石中级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>common/items/矿石初级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>common/items/矿石高级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>common/items/钻石龙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>购买图标</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -542,6 +262,51 @@
   <si>
     <t>idle_lv1</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon/1级金币龙</t>
+  </si>
+  <si>
+    <t>icon/2级金币龙</t>
+  </si>
+  <si>
+    <t>icon/3级金币龙</t>
+  </si>
+  <si>
+    <t>icon/4级金币龙</t>
+  </si>
+  <si>
+    <t>icon/5级金币龙</t>
+  </si>
+  <si>
+    <t>icon/6级金币龙</t>
+  </si>
+  <si>
+    <t>icon/7级金币龙</t>
+  </si>
+  <si>
+    <t>icon/8级金币龙</t>
+  </si>
+  <si>
+    <t>icon/9级金币龙</t>
+  </si>
+  <si>
+    <t>icon/10级金币龙</t>
+  </si>
+  <si>
+    <t>icon/宝石龙</t>
+  </si>
+  <si>
+    <t>icon/矿石初级</t>
+  </si>
+  <si>
+    <t>icon/矿石中级</t>
+  </si>
+  <si>
+    <t>icon/矿石高级</t>
+  </si>
+  <si>
+    <t>icon/钻石龙</t>
   </si>
 </sst>
 </file>
@@ -934,7 +699,7 @@
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -960,16 +725,16 @@
         <v>8</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.6">
@@ -983,16 +748,16 @@
         <v>6</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.6">
@@ -1012,7 +777,7 @@
         <v>1</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>1</v>
@@ -1061,7 +826,7 @@
         <v>2</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="14.4" customHeight="1">
@@ -1072,16 +837,16 @@
         <v>14</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>24</v>
+        <v>62</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="F6" s="1">
         <v>0</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1092,16 +857,16 @@
         <v>15</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="F7" s="1">
         <v>0</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1112,16 +877,16 @@
         <v>16</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>26</v>
+        <v>64</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="F8" s="1">
         <v>0</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1132,16 +897,16 @@
         <v>17</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="F9" s="1">
         <v>0</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1152,16 +917,16 @@
         <v>18</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>28</v>
+        <v>66</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="F10" s="1">
         <v>0</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1172,16 +937,16 @@
         <v>19</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>29</v>
+        <v>67</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="F11" s="1">
         <v>0</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1192,16 +957,16 @@
         <v>20</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>30</v>
+        <v>68</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="F12" s="1">
         <v>0</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1212,16 +977,16 @@
         <v>21</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>31</v>
+        <v>69</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="F13" s="1">
         <v>0</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1232,16 +997,16 @@
         <v>22</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="F14" s="1">
         <v>0</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1252,13 +1017,13 @@
         <v>23</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>33</v>
+        <v>71</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="F15" s="1">
         <v>1</v>
@@ -1272,10 +1037,10 @@
         <v>13</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>34</v>
+        <v>72</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="F16" s="1">
         <v>2</v>
@@ -1289,13 +1054,13 @@
         <v>11</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>36</v>
+        <v>73</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="F17" s="1">
         <v>2</v>
@@ -1309,13 +1074,13 @@
         <v>12</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>35</v>
+        <v>74</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="F18" s="1">
         <v>2</v>
@@ -1329,13 +1094,13 @@
         <v>10</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="F19" s="1">
         <v>2</v>
@@ -1349,10 +1114,10 @@
         <v>9</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="F20" s="1">
         <v>2</v>

--- a/excel/STBConfig.xlsx
+++ b/excel/STBConfig.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="67">
   <si>
     <t>id</t>
   </si>
@@ -175,39 +175,6 @@
   </si>
   <si>
     <t>prefabs/STB_Diamond</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>prefabs/STB_Gold_Level10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>prefabs/STB_Gold_Level1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>prefabs/STB_Gold_Level3</t>
-  </si>
-  <si>
-    <t>prefabs/STB_Gold_Level4</t>
-  </si>
-  <si>
-    <t>prefabs/STB_Gold_Level5</t>
-  </si>
-  <si>
-    <t>prefabs/STB_Gold_Level6</t>
-  </si>
-  <si>
-    <t>prefabs/STB_Gold_Level7</t>
-  </si>
-  <si>
-    <t>prefabs/STB_Gold_Level8</t>
-  </si>
-  <si>
-    <t>prefabs/STB_Gold_Level9</t>
-  </si>
-  <si>
-    <t>prefabs/STB_Gold_Level2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -699,7 +666,7 @@
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -731,10 +698,10 @@
         <v>30</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.6">
@@ -754,10 +721,10 @@
         <v>31</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.6">
@@ -777,7 +744,7 @@
         <v>1</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>1</v>
@@ -826,7 +793,7 @@
         <v>2</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="14.4" customHeight="1">
@@ -837,16 +804,11 @@
         <v>14</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F6" s="1">
-        <v>0</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="E6" s="4"/>
       <c r="G6" s="5" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -857,16 +819,11 @@
         <v>15</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F7" s="1">
-        <v>0</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="E7" s="4"/>
       <c r="G7" s="5" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -877,16 +834,11 @@
         <v>16</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="F8" s="1">
-        <v>0</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="E8" s="4"/>
       <c r="G8" s="5" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -897,16 +849,11 @@
         <v>17</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="F9" s="1">
-        <v>0</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="E9" s="4"/>
       <c r="G9" s="5" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -917,16 +864,11 @@
         <v>18</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="F10" s="1">
-        <v>0</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="E10" s="4"/>
       <c r="G10" s="5" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -937,16 +879,11 @@
         <v>19</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F11" s="1">
-        <v>0</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="E11" s="4"/>
       <c r="G11" s="5" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -957,16 +894,11 @@
         <v>20</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F12" s="1">
-        <v>0</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="E12" s="4"/>
       <c r="G12" s="5" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -977,16 +909,11 @@
         <v>21</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F13" s="1">
-        <v>0</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="E13" s="4"/>
       <c r="G13" s="5" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -997,16 +924,11 @@
         <v>22</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="F14" s="1">
-        <v>0</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="E14" s="4"/>
       <c r="G14" s="5" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1017,14 +939,12 @@
         <v>23</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E15" s="4" t="s">
-        <v>37</v>
-      </c>
+      <c r="E15" s="4"/>
       <c r="F15" s="1">
         <v>1</v>
       </c>
@@ -1037,7 +957,7 @@
         <v>13</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>35</v>
@@ -1054,7 +974,7 @@
         <v>11</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>27</v>
@@ -1074,7 +994,7 @@
         <v>12</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>28</v>
@@ -1094,7 +1014,7 @@
         <v>10</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>29</v>
@@ -1114,7 +1034,7 @@
         <v>9</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>36</v>

--- a/excel/STBConfig.xlsx
+++ b/excel/STBConfig.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="68">
   <si>
     <t>id</t>
   </si>
@@ -274,6 +274,10 @@
   </si>
   <si>
     <t>icon/钻石龙</t>
+  </si>
+  <si>
+    <t>prefabs/STB_Gold</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -666,7 +670,7 @@
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -798,7 +802,7 @@
     </row>
     <row r="6" spans="1:7" ht="14.4" customHeight="1">
       <c r="A6" s="1">
-        <v>1</v>
+        <v>101</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>14</v>
@@ -807,13 +811,16 @@
         <v>52</v>
       </c>
       <c r="E6" s="4"/>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
       <c r="G6" s="5" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1">
-        <v>2</v>
+        <v>102</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>15</v>
@@ -822,13 +829,16 @@
         <v>53</v>
       </c>
       <c r="E7" s="4"/>
+      <c r="F7" s="1">
+        <v>0</v>
+      </c>
       <c r="G7" s="5" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1">
-        <v>3</v>
+        <v>103</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>16</v>
@@ -837,13 +847,16 @@
         <v>54</v>
       </c>
       <c r="E8" s="4"/>
+      <c r="F8" s="1">
+        <v>0</v>
+      </c>
       <c r="G8" s="5" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1">
-        <v>4</v>
+        <v>104</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>17</v>
@@ -852,13 +865,16 @@
         <v>55</v>
       </c>
       <c r="E9" s="4"/>
+      <c r="F9" s="1">
+        <v>0</v>
+      </c>
       <c r="G9" s="5" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1">
-        <v>5</v>
+        <v>105</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>18</v>
@@ -867,13 +883,16 @@
         <v>56</v>
       </c>
       <c r="E10" s="4"/>
+      <c r="F10" s="1">
+        <v>0</v>
+      </c>
       <c r="G10" s="5" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1">
-        <v>6</v>
+        <v>106</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>19</v>
@@ -882,13 +901,16 @@
         <v>57</v>
       </c>
       <c r="E11" s="4"/>
+      <c r="F11" s="1">
+        <v>0</v>
+      </c>
       <c r="G11" s="5" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1">
-        <v>7</v>
+        <v>107</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>20</v>
@@ -897,13 +919,16 @@
         <v>58</v>
       </c>
       <c r="E12" s="4"/>
+      <c r="F12" s="1">
+        <v>0</v>
+      </c>
       <c r="G12" s="5" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="1">
-        <v>8</v>
+        <v>108</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>21</v>
@@ -912,13 +937,16 @@
         <v>59</v>
       </c>
       <c r="E13" s="4"/>
+      <c r="F13" s="1">
+        <v>0</v>
+      </c>
       <c r="G13" s="5" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="1">
-        <v>9</v>
+        <v>109</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>22</v>
@@ -927,13 +955,16 @@
         <v>60</v>
       </c>
       <c r="E14" s="4"/>
+      <c r="F14" s="1">
+        <v>0</v>
+      </c>
       <c r="G14" s="5" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="1">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>23</v>
@@ -944,14 +975,16 @@
       <c r="D15" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E15" s="4"/>
+      <c r="E15" s="4" t="s">
+        <v>67</v>
+      </c>
       <c r="F15" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="1">
-        <v>11</v>
+        <v>201</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>13</v>
@@ -968,7 +1001,7 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="1">
-        <v>12</v>
+        <v>301</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>11</v>
@@ -988,7 +1021,7 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="1">
-        <v>13</v>
+        <v>302</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>12</v>
@@ -1008,7 +1041,7 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="1">
-        <v>14</v>
+        <v>303</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>10</v>
@@ -1028,7 +1061,7 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="1">
-        <v>15</v>
+        <v>401</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>9</v>

--- a/excel/STBConfig.xlsx
+++ b/excel/STBConfig.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="84">
   <si>
     <t>id</t>
   </si>
@@ -120,6 +120,212 @@
   <si>
     <t>puricon</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>gui/shop/texture/矿石初级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gui/shop/texture/矿石中级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gui/shop/texture/矿石高级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预制体</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>perfab</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>prefabs/STB_Super_Level1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prefabs/STB_Super_Level2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prefabs/STB_Super_Level3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prefabs/STB_Gem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prefabs/STB_Diamond</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>map</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动画</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>animation</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>client</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>idle_lv2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>idle_lv3</t>
+  </si>
+  <si>
+    <t>idle_lv4</t>
+  </si>
+  <si>
+    <t>idle_lv5</t>
+  </si>
+  <si>
+    <t>idle_lv6</t>
+  </si>
+  <si>
+    <t>idle_lv7</t>
+  </si>
+  <si>
+    <t>idle_lv8</t>
+  </si>
+  <si>
+    <t>idle_lv9</t>
+  </si>
+  <si>
+    <t>idle_lv1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon/1级金币龙</t>
+  </si>
+  <si>
+    <t>icon/2级金币龙</t>
+  </si>
+  <si>
+    <t>icon/3级金币龙</t>
+  </si>
+  <si>
+    <t>icon/4级金币龙</t>
+  </si>
+  <si>
+    <t>icon/5级金币龙</t>
+  </si>
+  <si>
+    <t>icon/6级金币龙</t>
+  </si>
+  <si>
+    <t>icon/7级金币龙</t>
+  </si>
+  <si>
+    <t>icon/8级金币龙</t>
+  </si>
+  <si>
+    <t>icon/9级金币龙</t>
+  </si>
+  <si>
+    <t>icon/10级金币龙</t>
+  </si>
+  <si>
+    <t>icon/宝石龙</t>
+  </si>
+  <si>
+    <t>icon/矿石初级</t>
+  </si>
+  <si>
+    <t>icon/矿石中级</t>
+  </si>
+  <si>
+    <t>icon/矿石高级</t>
+  </si>
+  <si>
+    <t>icon/钻石龙</t>
+  </si>
+  <si>
+    <t>prefabs/STB_Gold</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>survival</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kinds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>grade</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>income</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pur</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>星兽种类</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>星兽等级</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否可以收益(1.是,2.否)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>星兽存活时间</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否可以购买</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买消耗货币类型</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买消耗货币数量</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>围栏</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>purcoin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>purnum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -127,9 +333,11 @@
     </r>
     <r>
       <rPr>
+        <b/>
         <sz val="11"/>
-        <color theme="1"/>
+        <color rgb="FFFA7D00"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -137,154 +345,12 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
-  <si>
-    <t>gui/shop/texture/矿石初级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gui/shop/texture/矿石中级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gui/shop/texture/矿石高级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>预制体</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>perfab</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>prefabs/STB_Super_Level1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>prefabs/STB_Super_Level2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>prefabs/STB_Super_Level3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>prefabs/STB_Gem</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>prefabs/STB_Diamond</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>地图</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>map</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>动画</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>animation</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>client</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>idle_lv2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>idle_lv3</t>
-  </si>
-  <si>
-    <t>idle_lv4</t>
-  </si>
-  <si>
-    <t>idle_lv5</t>
-  </si>
-  <si>
-    <t>idle_lv6</t>
-  </si>
-  <si>
-    <t>idle_lv7</t>
-  </si>
-  <si>
-    <t>idle_lv8</t>
-  </si>
-  <si>
-    <t>idle_lv9</t>
-  </si>
-  <si>
-    <t>idle_lv1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>icon/1级金币龙</t>
-  </si>
-  <si>
-    <t>icon/2级金币龙</t>
-  </si>
-  <si>
-    <t>icon/3级金币龙</t>
-  </si>
-  <si>
-    <t>icon/4级金币龙</t>
-  </si>
-  <si>
-    <t>icon/5级金币龙</t>
-  </si>
-  <si>
-    <t>icon/6级金币龙</t>
-  </si>
-  <si>
-    <t>icon/7级金币龙</t>
-  </si>
-  <si>
-    <t>icon/8级金币龙</t>
-  </si>
-  <si>
-    <t>icon/9级金币龙</t>
-  </si>
-  <si>
-    <t>icon/10级金币龙</t>
-  </si>
-  <si>
-    <t>icon/宝石龙</t>
-  </si>
-  <si>
-    <t>icon/矿石初级</t>
-  </si>
-  <si>
-    <t>icon/矿石中级</t>
-  </si>
-  <si>
-    <t>icon/矿石高级</t>
-  </si>
-  <si>
-    <t>icon/钻石龙</t>
-  </si>
-  <si>
-    <t>prefabs/STB_Gold</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -320,15 +386,25 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -347,8 +423,13 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -371,11 +452,29 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -386,15 +485,13 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="计算" xfId="1" builtinId="22"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -667,25 +764,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="24.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="21" style="1" customWidth="1"/>
-    <col min="3" max="3" width="30.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="30.5546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="28.21875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="24.21875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="41.5546875" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="15.5546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.77734375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="30.21875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="28.88671875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.88671875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="13.88671875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="14.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="9.44140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.88671875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="13.44140625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="16.33203125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="16.5546875" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.6">
+    <row r="1" spans="1:14" ht="31.2">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
@@ -699,16 +803,37 @@
         <v>24</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>37</v>
+        <v>80</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="15.6">
+        <v>38</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="15.6">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -722,18 +847,39 @@
         <v>25</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="15.6">
+      <c r="H2" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="15.6">
       <c r="A3" s="2" t="s">
-        <v>1</v>
+        <v>71</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>1</v>
@@ -748,13 +894,32 @@
         <v>1</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="16.2">
+      <c r="H3" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="16.2">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
@@ -776,8 +941,29 @@
       <c r="G4" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" ht="16.2">
+      <c r="H4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="16.2">
       <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
@@ -797,283 +983,610 @@
         <v>2</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="14.4" customHeight="1">
-      <c r="A6" s="1">
+        <v>40</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" s="4" customFormat="1" ht="14.4" customHeight="1">
+      <c r="A6" s="4">
         <v>101</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="1">
-        <v>0</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="1">
+        <v>50</v>
+      </c>
+      <c r="F6" s="4">
+        <v>0</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="H6" s="4">
+        <v>1</v>
+      </c>
+      <c r="I6" s="4">
+        <v>1</v>
+      </c>
+      <c r="J6" s="4">
+        <v>2</v>
+      </c>
+      <c r="K6" s="4">
+        <v>0</v>
+      </c>
+      <c r="L6" s="4">
+        <v>1</v>
+      </c>
+      <c r="M6" s="4">
+        <v>1</v>
+      </c>
+      <c r="N6" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" s="4" customFormat="1">
+      <c r="A7" s="4">
         <v>102</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>15</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E7" s="4"/>
-      <c r="F7" s="1">
-        <v>0</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="1">
+        <v>51</v>
+      </c>
+      <c r="F7" s="4">
+        <v>0</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H7" s="4">
+        <v>1</v>
+      </c>
+      <c r="I7" s="4">
+        <v>2</v>
+      </c>
+      <c r="J7" s="4">
+        <v>2</v>
+      </c>
+      <c r="K7" s="4">
+        <v>0</v>
+      </c>
+      <c r="L7" s="4">
+        <v>1</v>
+      </c>
+      <c r="M7" s="4">
+        <v>1</v>
+      </c>
+      <c r="N7" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" s="4" customFormat="1">
+      <c r="A8" s="4">
         <v>103</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>16</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="E8" s="4"/>
-      <c r="F8" s="1">
-        <v>0</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="1">
+        <v>52</v>
+      </c>
+      <c r="F8" s="4">
+        <v>0</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="H8" s="4">
+        <v>1</v>
+      </c>
+      <c r="I8" s="4">
+        <v>3</v>
+      </c>
+      <c r="J8" s="4">
+        <v>2</v>
+      </c>
+      <c r="K8" s="4">
+        <v>0</v>
+      </c>
+      <c r="L8" s="4">
+        <v>1</v>
+      </c>
+      <c r="M8" s="4">
+        <v>1</v>
+      </c>
+      <c r="N8" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" s="4" customFormat="1">
+      <c r="A9" s="4">
         <v>104</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>17</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="E9" s="4"/>
-      <c r="F9" s="1">
-        <v>0</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="1">
+        <v>53</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="H9" s="4">
+        <v>1</v>
+      </c>
+      <c r="I9" s="4">
+        <v>4</v>
+      </c>
+      <c r="J9" s="4">
+        <v>2</v>
+      </c>
+      <c r="K9" s="4">
+        <v>0</v>
+      </c>
+      <c r="L9" s="4">
+        <v>1</v>
+      </c>
+      <c r="M9" s="4">
+        <v>1</v>
+      </c>
+      <c r="N9" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" s="4" customFormat="1">
+      <c r="A10" s="4">
         <v>105</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>18</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="E10" s="4"/>
-      <c r="F10" s="1">
-        <v>0</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="1">
+        <v>54</v>
+      </c>
+      <c r="F10" s="4">
+        <v>0</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H10" s="4">
+        <v>1</v>
+      </c>
+      <c r="I10" s="4">
+        <v>5</v>
+      </c>
+      <c r="J10" s="4">
+        <v>2</v>
+      </c>
+      <c r="K10" s="4">
+        <v>0</v>
+      </c>
+      <c r="L10" s="4">
+        <v>1</v>
+      </c>
+      <c r="M10" s="4">
+        <v>1</v>
+      </c>
+      <c r="N10" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" s="4" customFormat="1">
+      <c r="A11" s="4">
         <v>106</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>19</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="E11" s="4"/>
-      <c r="F11" s="1">
-        <v>0</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="1">
+        <v>55</v>
+      </c>
+      <c r="F11" s="4">
+        <v>0</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" s="4">
+        <v>1</v>
+      </c>
+      <c r="I11" s="4">
+        <v>6</v>
+      </c>
+      <c r="J11" s="4">
+        <v>2</v>
+      </c>
+      <c r="K11" s="4">
+        <v>0</v>
+      </c>
+      <c r="L11" s="4">
+        <v>1</v>
+      </c>
+      <c r="M11" s="4">
+        <v>1</v>
+      </c>
+      <c r="N11" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" s="4" customFormat="1">
+      <c r="A12" s="4">
         <v>107</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>20</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E12" s="4"/>
-      <c r="F12" s="1">
-        <v>0</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="1">
+        <v>56</v>
+      </c>
+      <c r="F12" s="4">
+        <v>0</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" s="4">
+        <v>1</v>
+      </c>
+      <c r="I12" s="4">
+        <v>7</v>
+      </c>
+      <c r="J12" s="4">
+        <v>2</v>
+      </c>
+      <c r="K12" s="4">
+        <v>0</v>
+      </c>
+      <c r="L12" s="4">
+        <v>1</v>
+      </c>
+      <c r="M12" s="4">
+        <v>1</v>
+      </c>
+      <c r="N12" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" s="4" customFormat="1">
+      <c r="A13" s="4">
         <v>108</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="E13" s="4"/>
-      <c r="F13" s="1">
-        <v>0</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="1">
+        <v>57</v>
+      </c>
+      <c r="F13" s="4">
+        <v>0</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H13" s="4">
+        <v>1</v>
+      </c>
+      <c r="I13" s="4">
+        <v>8</v>
+      </c>
+      <c r="J13" s="4">
+        <v>2</v>
+      </c>
+      <c r="K13" s="4">
+        <v>0</v>
+      </c>
+      <c r="L13" s="4">
+        <v>1</v>
+      </c>
+      <c r="M13" s="4">
+        <v>1</v>
+      </c>
+      <c r="N13" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" s="4" customFormat="1">
+      <c r="A14" s="4">
         <v>109</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>22</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="E14" s="4"/>
-      <c r="F14" s="1">
-        <v>0</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="1">
+        <v>58</v>
+      </c>
+      <c r="F14" s="4">
+        <v>0</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H14" s="4">
+        <v>1</v>
+      </c>
+      <c r="I14" s="4">
+        <v>9</v>
+      </c>
+      <c r="J14" s="4">
+        <v>2</v>
+      </c>
+      <c r="K14" s="4">
+        <v>0</v>
+      </c>
+      <c r="L14" s="4">
+        <v>1</v>
+      </c>
+      <c r="M14" s="4">
+        <v>1</v>
+      </c>
+      <c r="N14" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" s="4" customFormat="1">
+      <c r="A15" s="4">
         <v>110</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>23</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="F15" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="1">
+        <v>65</v>
+      </c>
+      <c r="F15" s="4">
+        <v>1</v>
+      </c>
+      <c r="H15" s="4">
+        <v>1</v>
+      </c>
+      <c r="I15" s="4">
+        <v>10</v>
+      </c>
+      <c r="J15" s="4">
+        <v>1</v>
+      </c>
+      <c r="K15" s="4">
+        <v>0</v>
+      </c>
+      <c r="L15" s="4">
+        <v>1</v>
+      </c>
+      <c r="M15" s="4">
+        <v>2</v>
+      </c>
+      <c r="N15" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" s="4" customFormat="1">
+      <c r="A16" s="4">
         <v>201</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="F16" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="1">
+        <v>34</v>
+      </c>
+      <c r="F16" s="4">
+        <v>2</v>
+      </c>
+      <c r="H16" s="4">
+        <v>2</v>
+      </c>
+      <c r="I16" s="4">
+        <v>1</v>
+      </c>
+      <c r="J16" s="4">
+        <v>1</v>
+      </c>
+      <c r="K16" s="4">
+        <v>0</v>
+      </c>
+      <c r="L16" s="4">
+        <v>2</v>
+      </c>
+      <c r="M16" s="4">
+        <v>2</v>
+      </c>
+      <c r="N16" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" s="4" customFormat="1">
+      <c r="A17" s="4">
         <v>301</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F17" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="1">
+        <v>31</v>
+      </c>
+      <c r="F17" s="4">
+        <v>2</v>
+      </c>
+      <c r="H17" s="4">
+        <v>3</v>
+      </c>
+      <c r="I17" s="4">
+        <v>1</v>
+      </c>
+      <c r="J17" s="4">
+        <v>1</v>
+      </c>
+      <c r="K17" s="4">
+        <v>0</v>
+      </c>
+      <c r="L17" s="4">
+        <v>1</v>
+      </c>
+      <c r="M17" s="4">
+        <v>2</v>
+      </c>
+      <c r="N17" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" s="4" customFormat="1">
+      <c r="A18" s="4">
         <v>302</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="F18" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="1">
+        <v>32</v>
+      </c>
+      <c r="F18" s="4">
+        <v>2</v>
+      </c>
+      <c r="H18" s="4">
+        <v>3</v>
+      </c>
+      <c r="I18" s="4">
+        <v>2</v>
+      </c>
+      <c r="J18" s="4">
+        <v>1</v>
+      </c>
+      <c r="K18" s="4">
+        <v>0</v>
+      </c>
+      <c r="L18" s="4">
+        <v>1</v>
+      </c>
+      <c r="M18" s="4">
+        <v>2</v>
+      </c>
+      <c r="N18" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" s="4" customFormat="1">
+      <c r="A19" s="4">
         <v>303</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F19" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="1">
+        <v>33</v>
+      </c>
+      <c r="F19" s="4">
+        <v>2</v>
+      </c>
+      <c r="H19" s="4">
+        <v>3</v>
+      </c>
+      <c r="I19" s="4">
+        <v>3</v>
+      </c>
+      <c r="J19" s="4">
+        <v>1</v>
+      </c>
+      <c r="K19" s="4">
+        <v>0</v>
+      </c>
+      <c r="L19" s="4">
+        <v>2</v>
+      </c>
+      <c r="M19" s="4">
+        <v>2</v>
+      </c>
+      <c r="N19" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" s="4" customFormat="1">
+      <c r="A20" s="4">
         <v>401</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="F20" s="1">
-        <v>2</v>
+        <v>35</v>
+      </c>
+      <c r="F20" s="4">
+        <v>2</v>
+      </c>
+      <c r="H20" s="4">
+        <v>4</v>
+      </c>
+      <c r="I20" s="4">
+        <v>1</v>
+      </c>
+      <c r="J20" s="4">
+        <v>1</v>
+      </c>
+      <c r="K20" s="4">
+        <v>0</v>
+      </c>
+      <c r="L20" s="4">
+        <v>1</v>
+      </c>
+      <c r="M20" s="4">
+        <v>2</v>
+      </c>
+      <c r="N20" s="4">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/excel/STBConfig.xlsx
+++ b/excel/STBConfig.xlsx
@@ -767,7 +767,7 @@
   <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -919,7 +919,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="16.2">
+    <row r="4" spans="1:14" ht="32.4">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>

--- a/excel/STBConfig.xlsx
+++ b/excel/STBConfig.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="85">
   <si>
     <t>id</t>
   </si>
@@ -344,6 +344,10 @@
       <t>级金币龙</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大图标</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -764,32 +768,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N20"/>
+  <dimension ref="A1:O20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="1" width="15.5546875" style="1" customWidth="1"/>
     <col min="2" max="2" width="15.77734375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="30.21875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="28.88671875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.88671875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="13.88671875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="14.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="9.44140625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="13.88671875" style="1" customWidth="1"/>
-    <col min="12" max="12" width="13.44140625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="16.33203125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="16.5546875" style="1" customWidth="1"/>
-    <col min="15" max="16384" width="9" style="1"/>
+    <col min="3" max="4" width="18.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="30.21875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="28.88671875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.88671875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13.88671875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="14.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="9.44140625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="13.88671875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="13.44140625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="16.33203125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="16.5546875" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="31.2">
+    <row r="1" spans="1:15" ht="31.2">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
@@ -800,40 +804,43 @@
         <v>8</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="15.6">
+    <row r="2" spans="1:15" ht="15.6">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -844,40 +851,43 @@
         <v>6</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="15.6">
+    <row r="3" spans="1:15" ht="15.6">
       <c r="A3" s="2" t="s">
         <v>71</v>
       </c>
@@ -894,13 +904,13 @@
         <v>1</v>
       </c>
       <c r="F3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>1</v>
-      </c>
       <c r="H3" s="2" t="s">
-        <v>66</v>
+        <v>1</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>66</v>
@@ -911,15 +921,18 @@
       <c r="K3" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>66</v>
       </c>
+      <c r="M3" s="2"/>
       <c r="N3" s="2" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" ht="32.4">
+      <c r="O3" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="32.4">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
@@ -962,8 +975,11 @@
       <c r="N4" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" ht="16.2">
+      <c r="O4" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="16.2">
       <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
@@ -983,7 +999,7 @@
         <v>2</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="H5" s="3" t="s">
         <v>40</v>
@@ -1006,8 +1022,11 @@
       <c r="N5" s="3" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" s="4" customFormat="1" ht="14.4" customHeight="1">
+      <c r="O5" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" s="4" customFormat="1" ht="14.4" customHeight="1">
       <c r="A6" s="4">
         <v>101</v>
       </c>
@@ -1017,35 +1036,38 @@
       <c r="C6" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="F6" s="4">
-        <v>0</v>
-      </c>
-      <c r="G6" s="4" t="s">
+      <c r="D6" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="G6" s="4">
+        <v>0</v>
+      </c>
+      <c r="H6" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="H6" s="4">
-        <v>1</v>
-      </c>
       <c r="I6" s="4">
         <v>1</v>
       </c>
       <c r="J6" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K6" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L6" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M6" s="4">
         <v>1</v>
       </c>
       <c r="N6" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" s="4" customFormat="1">
+        <v>1</v>
+      </c>
+      <c r="O6" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" s="4" customFormat="1">
       <c r="A7" s="4">
         <v>102</v>
       </c>
@@ -1055,35 +1077,38 @@
       <c r="C7" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="F7" s="4">
-        <v>0</v>
-      </c>
-      <c r="G7" s="4" t="s">
+      <c r="D7" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="G7" s="4">
+        <v>0</v>
+      </c>
+      <c r="H7" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="H7" s="4">
-        <v>1</v>
-      </c>
       <c r="I7" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J7" s="4">
         <v>2</v>
       </c>
       <c r="K7" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L7" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M7" s="4">
         <v>1</v>
       </c>
       <c r="N7" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" s="4" customFormat="1">
+        <v>1</v>
+      </c>
+      <c r="O7" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" s="4" customFormat="1">
       <c r="A8" s="4">
         <v>103</v>
       </c>
@@ -1093,35 +1118,38 @@
       <c r="C8" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="F8" s="4">
-        <v>0</v>
-      </c>
-      <c r="G8" s="4" t="s">
+      <c r="D8" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G8" s="4">
+        <v>0</v>
+      </c>
+      <c r="H8" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="H8" s="4">
-        <v>1</v>
-      </c>
       <c r="I8" s="4">
+        <v>1</v>
+      </c>
+      <c r="J8" s="4">
         <v>3</v>
       </c>
-      <c r="J8" s="4">
-        <v>2</v>
-      </c>
       <c r="K8" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L8" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M8" s="4">
         <v>1</v>
       </c>
       <c r="N8" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" s="4" customFormat="1">
+        <v>1</v>
+      </c>
+      <c r="O8" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="4" customFormat="1">
       <c r="A9" s="4">
         <v>104</v>
       </c>
@@ -1131,35 +1159,38 @@
       <c r="C9" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="F9" s="4">
-        <v>0</v>
-      </c>
-      <c r="G9" s="4" t="s">
+      <c r="D9" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="G9" s="4">
+        <v>0</v>
+      </c>
+      <c r="H9" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="H9" s="4">
-        <v>1</v>
-      </c>
       <c r="I9" s="4">
+        <v>1</v>
+      </c>
+      <c r="J9" s="4">
         <v>4</v>
       </c>
-      <c r="J9" s="4">
-        <v>2</v>
-      </c>
       <c r="K9" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L9" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M9" s="4">
         <v>1</v>
       </c>
       <c r="N9" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" s="4" customFormat="1">
+        <v>1</v>
+      </c>
+      <c r="O9" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" s="4" customFormat="1">
       <c r="A10" s="4">
         <v>105</v>
       </c>
@@ -1169,35 +1200,38 @@
       <c r="C10" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="F10" s="4">
-        <v>0</v>
-      </c>
-      <c r="G10" s="4" t="s">
+      <c r="D10" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="G10" s="4">
+        <v>0</v>
+      </c>
+      <c r="H10" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="H10" s="4">
-        <v>1</v>
-      </c>
       <c r="I10" s="4">
+        <v>1</v>
+      </c>
+      <c r="J10" s="4">
         <v>5</v>
       </c>
-      <c r="J10" s="4">
-        <v>2</v>
-      </c>
       <c r="K10" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L10" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M10" s="4">
         <v>1</v>
       </c>
       <c r="N10" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" s="4" customFormat="1">
+        <v>1</v>
+      </c>
+      <c r="O10" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" s="4" customFormat="1">
       <c r="A11" s="4">
         <v>106</v>
       </c>
@@ -1207,35 +1241,38 @@
       <c r="C11" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="F11" s="4">
-        <v>0</v>
-      </c>
-      <c r="G11" s="4" t="s">
+      <c r="D11" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="G11" s="4">
+        <v>0</v>
+      </c>
+      <c r="H11" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="H11" s="4">
-        <v>1</v>
-      </c>
       <c r="I11" s="4">
+        <v>1</v>
+      </c>
+      <c r="J11" s="4">
         <v>6</v>
       </c>
-      <c r="J11" s="4">
-        <v>2</v>
-      </c>
       <c r="K11" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L11" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M11" s="4">
         <v>1</v>
       </c>
       <c r="N11" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" s="4" customFormat="1">
+        <v>1</v>
+      </c>
+      <c r="O11" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" s="4" customFormat="1">
       <c r="A12" s="4">
         <v>107</v>
       </c>
@@ -1245,35 +1282,38 @@
       <c r="C12" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="F12" s="4">
-        <v>0</v>
-      </c>
-      <c r="G12" s="4" t="s">
+      <c r="D12" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="G12" s="4">
+        <v>0</v>
+      </c>
+      <c r="H12" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="H12" s="4">
-        <v>1</v>
-      </c>
       <c r="I12" s="4">
+        <v>1</v>
+      </c>
+      <c r="J12" s="4">
         <v>7</v>
       </c>
-      <c r="J12" s="4">
-        <v>2</v>
-      </c>
       <c r="K12" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L12" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M12" s="4">
         <v>1</v>
       </c>
       <c r="N12" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" s="4" customFormat="1">
+        <v>1</v>
+      </c>
+      <c r="O12" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" s="4" customFormat="1">
       <c r="A13" s="4">
         <v>108</v>
       </c>
@@ -1283,35 +1323,38 @@
       <c r="C13" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="F13" s="4">
-        <v>0</v>
-      </c>
-      <c r="G13" s="4" t="s">
+      <c r="D13" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="G13" s="4">
+        <v>0</v>
+      </c>
+      <c r="H13" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="H13" s="4">
-        <v>1</v>
-      </c>
       <c r="I13" s="4">
+        <v>1</v>
+      </c>
+      <c r="J13" s="4">
         <v>8</v>
       </c>
-      <c r="J13" s="4">
-        <v>2</v>
-      </c>
       <c r="K13" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L13" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M13" s="4">
         <v>1</v>
       </c>
       <c r="N13" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" s="4" customFormat="1">
+        <v>1</v>
+      </c>
+      <c r="O13" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" s="4" customFormat="1">
       <c r="A14" s="4">
         <v>109</v>
       </c>
@@ -1321,35 +1364,38 @@
       <c r="C14" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="F14" s="4">
-        <v>0</v>
-      </c>
-      <c r="G14" s="4" t="s">
+      <c r="D14" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G14" s="4">
+        <v>0</v>
+      </c>
+      <c r="H14" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="H14" s="4">
-        <v>1</v>
-      </c>
       <c r="I14" s="4">
+        <v>1</v>
+      </c>
+      <c r="J14" s="4">
         <v>9</v>
       </c>
-      <c r="J14" s="4">
-        <v>2</v>
-      </c>
       <c r="K14" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L14" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M14" s="4">
         <v>1</v>
       </c>
       <c r="N14" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" s="4" customFormat="1">
+        <v>1</v>
+      </c>
+      <c r="O14" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" s="4" customFormat="1">
       <c r="A15" s="4">
         <v>110</v>
       </c>
@@ -1360,37 +1406,40 @@
         <v>59</v>
       </c>
       <c r="D15" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E15" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="F15" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="F15" s="4">
-        <v>1</v>
-      </c>
-      <c r="H15" s="4">
+      <c r="G15" s="4">
         <v>1</v>
       </c>
       <c r="I15" s="4">
+        <v>1</v>
+      </c>
+      <c r="J15" s="4">
         <v>10</v>
       </c>
-      <c r="J15" s="4">
-        <v>1</v>
-      </c>
       <c r="K15" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L15" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M15" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N15" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" s="4" customFormat="1">
+        <v>2</v>
+      </c>
+      <c r="O15" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" s="4" customFormat="1">
       <c r="A16" s="4">
         <v>201</v>
       </c>
@@ -1400,35 +1449,38 @@
       <c r="C16" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="D16" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F16" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F16" s="4">
-        <v>2</v>
-      </c>
-      <c r="H16" s="4">
+      <c r="G16" s="4">
         <v>2</v>
       </c>
       <c r="I16" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J16" s="4">
         <v>1</v>
       </c>
       <c r="K16" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L16" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M16" s="4">
         <v>2</v>
       </c>
       <c r="N16" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" s="4" customFormat="1">
+        <v>2</v>
+      </c>
+      <c r="O16" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" s="4" customFormat="1">
       <c r="A17" s="4">
         <v>301</v>
       </c>
@@ -1439,37 +1491,40 @@
         <v>61</v>
       </c>
       <c r="D17" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E17" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="F17" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="F17" s="4">
-        <v>2</v>
-      </c>
-      <c r="H17" s="4">
+      <c r="G17" s="4">
+        <v>2</v>
+      </c>
+      <c r="I17" s="4">
         <v>3</v>
       </c>
-      <c r="I17" s="4">
-        <v>1</v>
-      </c>
       <c r="J17" s="4">
         <v>1</v>
       </c>
       <c r="K17" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L17" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M17" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N17" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" s="4" customFormat="1">
+        <v>2</v>
+      </c>
+      <c r="O17" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" s="4" customFormat="1">
       <c r="A18" s="4">
         <v>302</v>
       </c>
@@ -1480,37 +1535,40 @@
         <v>62</v>
       </c>
       <c r="D18" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E18" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="F18" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="F18" s="4">
-        <v>2</v>
-      </c>
-      <c r="H18" s="4">
+      <c r="G18" s="4">
+        <v>2</v>
+      </c>
+      <c r="I18" s="4">
         <v>3</v>
       </c>
-      <c r="I18" s="4">
-        <v>2</v>
-      </c>
       <c r="J18" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K18" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L18" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M18" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N18" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" s="4" customFormat="1">
+        <v>2</v>
+      </c>
+      <c r="O18" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" s="4" customFormat="1">
       <c r="A19" s="4">
         <v>303</v>
       </c>
@@ -1521,37 +1579,40 @@
         <v>63</v>
       </c>
       <c r="D19" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E19" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="F19" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="F19" s="4">
-        <v>2</v>
-      </c>
-      <c r="H19" s="4">
-        <v>3</v>
+      <c r="G19" s="4">
+        <v>2</v>
       </c>
       <c r="I19" s="4">
         <v>3</v>
       </c>
       <c r="J19" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K19" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L19" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M19" s="4">
         <v>2</v>
       </c>
       <c r="N19" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" s="4" customFormat="1">
+        <v>2</v>
+      </c>
+      <c r="O19" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" s="4" customFormat="1">
       <c r="A20" s="4">
         <v>401</v>
       </c>
@@ -1561,31 +1622,34 @@
       <c r="C20" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="D20" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F20" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="F20" s="4">
-        <v>2</v>
-      </c>
-      <c r="H20" s="4">
+      <c r="G20" s="4">
+        <v>2</v>
+      </c>
+      <c r="I20" s="4">
         <v>4</v>
       </c>
-      <c r="I20" s="4">
-        <v>1</v>
-      </c>
       <c r="J20" s="4">
         <v>1</v>
       </c>
       <c r="K20" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L20" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M20" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N20" s="4">
+        <v>2</v>
+      </c>
+      <c r="O20" s="4">
         <v>0</v>
       </c>
     </row>

--- a/excel/STBConfig.xlsx
+++ b/excel/STBConfig.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="101">
   <si>
     <t>id</t>
   </si>
@@ -348,6 +348,70 @@
   <si>
     <t>大图标</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>bigicon</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>animation/金币龙1级动画/1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>animation/金币龙2级动画/1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>animation/金币龙3级动画/1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>animation/金币龙4级动画/1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>animation/金币龙5级动画/1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>animation/金币龙6级动画/1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>animation/金币龙7级动画/1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>animation/金币龙8级动画/1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>animation/金币龙9级动画/1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>animation/金币龙10级动画/idle/1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>animation/宝石龙动画/idle/1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>animation/矿石龙1级动画/idle/1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>animation/矿石龙2级动画/idle/1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>animation/矿石龙3级动画/idle/1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>animation/砖石龙动画/idle/1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -771,16 +835,17 @@
   <dimension ref="A1:O20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="L33" sqref="L33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="1" width="15.5546875" style="1" customWidth="1"/>
     <col min="2" max="2" width="15.77734375" style="1" customWidth="1"/>
-    <col min="3" max="4" width="18.33203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="30.21875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="28.88671875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="31.77734375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="27.33203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="24.33203125" style="1" customWidth="1"/>
     <col min="7" max="7" width="15.88671875" style="1" customWidth="1"/>
     <col min="8" max="8" width="13.88671875" style="1" customWidth="1"/>
     <col min="9" max="9" width="14.6640625" style="1" customWidth="1"/>
@@ -851,7 +916,7 @@
         <v>6</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>6</v>
+        <v>85</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>25</v>
@@ -1037,7 +1102,7 @@
         <v>50</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>50</v>
+        <v>86</v>
       </c>
       <c r="G6" s="4">
         <v>0</v>
@@ -1078,7 +1143,7 @@
         <v>51</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>51</v>
+        <v>87</v>
       </c>
       <c r="G7" s="4">
         <v>0</v>
@@ -1119,7 +1184,7 @@
         <v>52</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>52</v>
+        <v>88</v>
       </c>
       <c r="G8" s="4">
         <v>0</v>
@@ -1160,7 +1225,7 @@
         <v>53</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="G9" s="4">
         <v>0</v>
@@ -1201,7 +1266,7 @@
         <v>54</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>54</v>
+        <v>90</v>
       </c>
       <c r="G10" s="4">
         <v>0</v>
@@ -1242,7 +1307,7 @@
         <v>55</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>55</v>
+        <v>91</v>
       </c>
       <c r="G11" s="4">
         <v>0</v>
@@ -1283,7 +1348,7 @@
         <v>56</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>56</v>
+        <v>92</v>
       </c>
       <c r="G12" s="4">
         <v>0</v>
@@ -1324,7 +1389,7 @@
         <v>57</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>57</v>
+        <v>93</v>
       </c>
       <c r="G13" s="4">
         <v>0</v>
@@ -1365,7 +1430,7 @@
         <v>58</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>58</v>
+        <v>94</v>
       </c>
       <c r="G14" s="4">
         <v>0</v>
@@ -1406,7 +1471,7 @@
         <v>59</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>59</v>
+        <v>95</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>83</v>
@@ -1450,7 +1515,7 @@
         <v>60</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>60</v>
+        <v>96</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>34</v>
@@ -1491,7 +1556,7 @@
         <v>61</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>61</v>
+        <v>97</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>26</v>
@@ -1535,7 +1600,7 @@
         <v>62</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>62</v>
+        <v>98</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>27</v>
@@ -1579,7 +1644,7 @@
         <v>63</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>63</v>
+        <v>99</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>28</v>
@@ -1623,7 +1688,7 @@
         <v>64</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>64</v>
+        <v>100</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>35</v>

--- a/excel/STBConfig.xlsx
+++ b/excel/STBConfig.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="97">
   <si>
     <t>id</t>
   </si>
@@ -122,18 +122,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>gui/shop/texture/矿石初级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gui/shop/texture/矿石中级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gui/shop/texture/矿石高级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>预制体</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -325,24 +313,6 @@
   </si>
   <si>
     <t>purnum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>gui/shop/texture/10</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFA7D00"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>级金币龙</t>
-    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -418,7 +388,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -459,15 +429,6 @@
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -835,7 +796,7 @@
   <dimension ref="A1:O20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L33" sqref="L33"/>
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -843,8 +804,8 @@
     <col min="1" max="1" width="15.5546875" style="1" customWidth="1"/>
     <col min="2" max="2" width="15.77734375" style="1" customWidth="1"/>
     <col min="3" max="3" width="18.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="31.77734375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="27.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="35.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="36.88671875" style="1" customWidth="1"/>
     <col min="6" max="6" width="24.33203125" style="1" customWidth="1"/>
     <col min="7" max="7" width="15.88671875" style="1" customWidth="1"/>
     <col min="8" max="8" width="13.88671875" style="1" customWidth="1"/>
@@ -869,40 +830,40 @@
         <v>8</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="I1" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>76</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="15.6">
@@ -916,45 +877,45 @@
         <v>6</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="J2" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M2" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="K2" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="N2" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="15.6">
       <c r="A3" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>1</v>
@@ -972,29 +933,29 @@
         <v>1</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="M3" s="2"/>
       <c r="N3" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="32.4">
@@ -1067,28 +1028,28 @@
         <v>2</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:15" s="4" customFormat="1" ht="14.4" customHeight="1">
@@ -1099,16 +1060,19 @@
         <v>14</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>86</v>
+        <v>82</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>82</v>
       </c>
       <c r="G6" s="4">
         <v>0</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="I6" s="4">
         <v>1</v>
@@ -1140,16 +1104,19 @@
         <v>15</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>87</v>
+        <v>83</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>83</v>
       </c>
       <c r="G7" s="4">
         <v>0</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="I7" s="4">
         <v>1</v>
@@ -1181,16 +1148,19 @@
         <v>16</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>88</v>
+        <v>84</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>84</v>
       </c>
       <c r="G8" s="4">
         <v>0</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="I8" s="4">
         <v>1</v>
@@ -1222,16 +1192,19 @@
         <v>17</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>89</v>
+        <v>85</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>85</v>
       </c>
       <c r="G9" s="4">
         <v>0</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="I9" s="4">
         <v>1</v>
@@ -1263,16 +1236,19 @@
         <v>18</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>90</v>
+        <v>86</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>86</v>
       </c>
       <c r="G10" s="4">
         <v>0</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="I10" s="4">
         <v>1</v>
@@ -1304,16 +1280,19 @@
         <v>19</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>91</v>
+        <v>87</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>87</v>
       </c>
       <c r="G11" s="4">
         <v>0</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="I11" s="4">
         <v>1</v>
@@ -1345,16 +1324,19 @@
         <v>20</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>92</v>
+        <v>88</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>88</v>
       </c>
       <c r="G12" s="4">
         <v>0</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="I12" s="4">
         <v>1</v>
@@ -1386,16 +1368,19 @@
         <v>21</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>93</v>
+        <v>89</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>89</v>
       </c>
       <c r="G13" s="4">
         <v>0</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="I13" s="4">
         <v>1</v>
@@ -1427,16 +1412,19 @@
         <v>22</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>94</v>
+        <v>90</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>90</v>
       </c>
       <c r="G14" s="4">
         <v>0</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="I14" s="4">
         <v>1</v>
@@ -1468,16 +1456,16 @@
         <v>23</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G15" s="4">
         <v>1</v>
@@ -1512,13 +1500,16 @@
         <v>13</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>96</v>
+        <v>92</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>92</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G16" s="4">
         <v>2</v>
@@ -1553,16 +1544,16 @@
         <v>11</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>26</v>
+        <v>93</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G17" s="4">
         <v>2</v>
@@ -1597,16 +1588,16 @@
         <v>12</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>27</v>
+        <v>94</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G18" s="4">
         <v>2</v>
@@ -1641,16 +1632,16 @@
         <v>10</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>28</v>
+        <v>95</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G19" s="4">
         <v>2</v>
@@ -1685,13 +1676,16 @@
         <v>9</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>100</v>
+        <v>96</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>96</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G20" s="4">
         <v>2</v>

--- a/excel/STBConfig.xlsx
+++ b/excel/STBConfig.xlsx
@@ -54,66 +54,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>砖石星兽</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高级至尊星兽</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>初级至尊星兽</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中级至尊星兽</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>宝石星兽</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1级黄金星兽</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2级黄金星兽</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>3级黄金星兽</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>4级黄金星兽</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>5级黄金星兽</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>6级黄金星兽</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>7级黄金星兽</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>8级黄金星兽</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>9级黄金星兽</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>10级黄金星兽</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>购买图标</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -382,6 +322,58 @@
   <si>
     <t>animation/砖石龙动画/idle/1</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stb_gem</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>stb_super_lv1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>stb_super_lv2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>stb_super_lv3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>stb_diamond</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>stb_gold_lv1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>stb_gold_lv2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>stb_gold_lv3</t>
+  </si>
+  <si>
+    <t>stb_gold_lv4</t>
+  </si>
+  <si>
+    <t>stb_gold_lv5</t>
+  </si>
+  <si>
+    <t>stb_gold_lv6</t>
+  </si>
+  <si>
+    <t>stb_gold_lv7</t>
+  </si>
+  <si>
+    <t>stb_gold_lv8</t>
+  </si>
+  <si>
+    <t>stb_gold_lv9</t>
+  </si>
+  <si>
+    <t>stb_gold_lv10</t>
   </si>
 </sst>
 </file>
@@ -796,17 +788,16 @@
   <dimension ref="A1:O20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="1" width="15.5546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.77734375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.33203125" style="1" customWidth="1"/>
+    <col min="2" max="3" width="18.33203125" style="1" customWidth="1"/>
     <col min="4" max="4" width="35.33203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="36.88671875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="24.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="30.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="19.88671875" style="1" customWidth="1"/>
     <col min="7" max="7" width="15.88671875" style="1" customWidth="1"/>
     <col min="8" max="8" width="13.88671875" style="1" customWidth="1"/>
     <col min="9" max="9" width="14.6640625" style="1" customWidth="1"/>
@@ -830,40 +821,40 @@
         <v>8</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="15.6">
@@ -877,45 +868,45 @@
         <v>6</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="L2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="O2" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="15.6">
       <c r="A3" s="2" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>1</v>
@@ -933,29 +924,29 @@
         <v>1</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="M3" s="2"/>
       <c r="N3" s="2" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="32.4">
@@ -1028,28 +1019,28 @@
         <v>2</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:15" s="4" customFormat="1" ht="14.4" customHeight="1">
@@ -1057,22 +1048,22 @@
         <v>101</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>14</v>
+        <v>87</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="G6" s="4">
         <v>0</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="I6" s="4">
         <v>1</v>
@@ -1101,22 +1092,22 @@
         <v>102</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>15</v>
+        <v>88</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="G7" s="4">
         <v>0</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="I7" s="4">
         <v>1</v>
@@ -1145,22 +1136,22 @@
         <v>103</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>16</v>
+        <v>89</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="G8" s="4">
         <v>0</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="I8" s="4">
         <v>1</v>
@@ -1189,22 +1180,22 @@
         <v>104</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>17</v>
+        <v>90</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="G9" s="4">
         <v>0</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="I9" s="4">
         <v>1</v>
@@ -1233,22 +1224,22 @@
         <v>105</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>18</v>
+        <v>91</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="G10" s="4">
         <v>0</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="I10" s="4">
         <v>1</v>
@@ -1277,22 +1268,22 @@
         <v>106</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>19</v>
+        <v>92</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="G11" s="4">
         <v>0</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="I11" s="4">
         <v>1</v>
@@ -1321,22 +1312,22 @@
         <v>107</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="G12" s="4">
         <v>0</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="I12" s="4">
         <v>1</v>
@@ -1365,22 +1356,22 @@
         <v>108</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>21</v>
+        <v>94</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="G13" s="4">
         <v>0</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="I13" s="4">
         <v>1</v>
@@ -1409,22 +1400,22 @@
         <v>109</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>22</v>
+        <v>95</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="G14" s="4">
         <v>0</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="I14" s="4">
         <v>1</v>
@@ -1453,19 +1444,19 @@
         <v>110</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>23</v>
+        <v>96</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="G15" s="4">
         <v>1</v>
@@ -1497,19 +1488,19 @@
         <v>201</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>13</v>
+        <v>82</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="G16" s="4">
         <v>2</v>
@@ -1541,19 +1532,19 @@
         <v>301</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>11</v>
+        <v>83</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="G17" s="4">
         <v>2</v>
@@ -1585,19 +1576,19 @@
         <v>302</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>12</v>
+        <v>84</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="G18" s="4">
         <v>2</v>
@@ -1629,19 +1620,19 @@
         <v>303</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>10</v>
+        <v>85</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="G19" s="4">
         <v>2</v>
@@ -1673,19 +1664,19 @@
         <v>401</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>9</v>
+        <v>86</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="G20" s="4">
         <v>2</v>

--- a/excel/STBConfig.xlsx
+++ b/excel/STBConfig.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="102">
   <si>
     <t>id</t>
   </si>
@@ -374,6 +374,26 @@
   </si>
   <si>
     <t>stb_gold_lv10</t>
+  </si>
+  <si>
+    <t>gui/game/texture/adoption/1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gui/game/texture/adoption/2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gui/game/texture/adoption/3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gui/game/texture/adoption/4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gui/game/texture/adoption/5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -788,16 +808,16 @@
   <dimension ref="A1:O20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="1" width="15.5546875" style="1" customWidth="1"/>
     <col min="2" max="3" width="18.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="35.33203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="30.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="19.88671875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="27.109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="38.77734375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.33203125" style="1" customWidth="1"/>
     <col min="7" max="7" width="15.88671875" style="1" customWidth="1"/>
     <col min="8" max="8" width="13.88671875" style="1" customWidth="1"/>
     <col min="9" max="9" width="14.6640625" style="1" customWidth="1"/>
@@ -1057,7 +1077,7 @@
         <v>67</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>67</v>
+        <v>97</v>
       </c>
       <c r="G6" s="4">
         <v>0</v>
@@ -1101,7 +1121,7 @@
         <v>68</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>68</v>
+        <v>98</v>
       </c>
       <c r="G7" s="4">
         <v>0</v>
@@ -1145,7 +1165,7 @@
         <v>69</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>69</v>
+        <v>99</v>
       </c>
       <c r="G8" s="4">
         <v>0</v>
@@ -1189,7 +1209,7 @@
         <v>70</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="G9" s="4">
         <v>0</v>
@@ -1233,7 +1253,7 @@
         <v>71</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>71</v>
+        <v>101</v>
       </c>
       <c r="G10" s="4">
         <v>0</v>

--- a/excel/STBConfig.xlsx
+++ b/excel/STBConfig.xlsx
@@ -808,7 +808,7 @@
   <dimension ref="A1:O20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
